--- a/creatXl.xlsx
+++ b/creatXl.xlsx
@@ -15,66 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>La Descente des Alpes - M1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Ligourel</t>
+  </si>
+  <si>
+    <t>Teedji</t>
+  </si>
+  <si>
+    <t>Cherief</t>
+  </si>
+  <si>
+    <t>Saufiane</t>
+  </si>
+  <si>
+    <t>Rameau</t>
+  </si>
+  <si>
+    <t>Célia</t>
+  </si>
   <si>
     <t>Génique</t>
   </si>
   <si>
     <t>Yoann</t>
-  </si>
-  <si>
-    <t>09/01/1996</t>
-  </si>
-  <si>
-    <t>genique.yoann@outlook.com</t>
-  </si>
-  <si>
-    <t>Mairot</t>
-  </si>
-  <si>
-    <t>Jean-christophe</t>
-  </si>
-  <si>
-    <t>15/05/1999</t>
-  </si>
-  <si>
-    <t>mairot.jean-christophe@gmail.com</t>
-  </si>
-  <si>
-    <t>Cherief</t>
-  </si>
-  <si>
-    <t>Saufiane</t>
-  </si>
-  <si>
-    <t>25/08/1992</t>
-  </si>
-  <si>
-    <t>saufiane.cherief@gmail.com</t>
-  </si>
-  <si>
-    <t>Rameau</t>
-  </si>
-  <si>
-    <t>Célia</t>
-  </si>
-  <si>
-    <t>13/04/2000</t>
-  </si>
-  <si>
-    <t>celia.rameau@gmail.com</t>
-  </si>
-  <si>
-    <t>Ligourel</t>
-  </si>
-  <si>
-    <t>Teedji</t>
-  </si>
-  <si>
-    <t>15/02/1997</t>
-  </si>
-  <si>
-    <t>ligourel.teedji@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -413,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,89 +391,96 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>1.55</v>
+      </c>
+      <c r="F1">
+        <v>1.92</v>
+      </c>
+      <c r="G1">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>6.2</v>
+      </c>
+      <c r="F2">
+        <v>1.4</v>
+      </c>
+      <c r="G2">
+        <v>1.4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3">
+        <v>7.3</v>
+      </c>
+      <c r="F3">
+        <v>5.6</v>
+      </c>
+      <c r="G3">
+        <v>5.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
+      <c r="E4">
+        <v>1.25</v>
+      </c>
+      <c r="F4">
+        <v>1.95</v>
+      </c>
+      <c r="G4">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/creatXl.xlsx
+++ b/creatXl.xlsx
@@ -15,38 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>La Descente des Alpes - M1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Ligourel</t>
-  </si>
-  <si>
-    <t>Teedji</t>
-  </si>
-  <si>
-    <t>Cherief</t>
-  </si>
-  <si>
-    <t>Saufiane</t>
-  </si>
-  <si>
-    <t>Rameau</t>
-  </si>
-  <si>
-    <t>Célia</t>
-  </si>
-  <si>
-    <t>Génique</t>
-  </si>
-  <si>
-    <t>Yoann</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,107 +352,14 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>1.55</v>
-      </c>
-      <c r="F1">
-        <v>1.92</v>
-      </c>
-      <c r="G1">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>6.2</v>
-      </c>
-      <c r="F2">
-        <v>1.4</v>
-      </c>
-      <c r="G2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>7.3</v>
-      </c>
-      <c r="F3">
-        <v>5.6</v>
-      </c>
-      <c r="G3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1.25</v>
-      </c>
-      <c r="F4">
-        <v>1.95</v>
-      </c>
-      <c r="G4">
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/creatXl.xlsx
+++ b/creatXl.xlsx
@@ -15,7 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+  <si>
+    <t>Cherief</t>
+  </si>
+  <si>
+    <t>Saufiane</t>
+  </si>
+  <si>
+    <t>toto</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,14 +365,37 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/creatXl.xlsx
+++ b/creatXl.xlsx
@@ -15,7 +15,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>id_participants</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>id_epreuve</t>
+  </si>
+  <si>
+    <t>Epreuve</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Temps 1</t>
+  </si>
+  <si>
+    <t>Temps 2</t>
+  </si>
+  <si>
+    <t>Meilleur Temps</t>
+  </si>
+  <si>
+    <t>id_categorie</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Génique</t>
+  </si>
+  <si>
+    <t>Yoann</t>
+  </si>
+  <si>
+    <t>La Descente des Alpes - M1</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Mairot</t>
+  </si>
+  <si>
+    <t>Jean-christophe</t>
+  </si>
   <si>
     <t>Cherief</t>
   </si>
@@ -23,10 +77,28 @@
     <t>Saufiane</t>
   </si>
   <si>
+    <t>Rameau</t>
+  </si>
+  <si>
+    <t>Célia</t>
+  </si>
+  <si>
+    <t>Ligourel</t>
+  </si>
+  <si>
+    <t>Teedji</t>
+  </si>
+  <si>
     <t>toto</t>
   </si>
   <si>
     <t>tata</t>
+  </si>
+  <si>
+    <t>choula</t>
+  </si>
+  <si>
+    <t>poula</t>
   </si>
 </sst>
 </file>
@@ -365,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,26 +445,221 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/creatXl.xlsx
+++ b/creatXl.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\API_gestion_championnat_ski\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE586946-23AB-4302-A5A1-39360B60E5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="2370" yWindow="2595" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>id_participants</t>
   </si>
@@ -50,7 +55,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Génique</t>
+    <t>toi</t>
   </si>
   <si>
     <t>Yoann</t>
@@ -65,10 +70,7 @@
     <t>M1</t>
   </si>
   <si>
-    <t>Mairot</t>
-  </si>
-  <si>
-    <t>Jean-christophe</t>
+    <t>moi</t>
   </si>
   <si>
     <t>Cherief</t>
@@ -80,38 +82,21 @@
     <t>Rameau</t>
   </si>
   <si>
-    <t>Célia</t>
+    <t>elle</t>
   </si>
   <si>
     <t>Ligourel</t>
   </si>
   <si>
-    <t>Teedji</t>
-  </si>
-  <si>
-    <t>toto</t>
-  </si>
-  <si>
-    <t>tata</t>
-  </si>
-  <si>
-    <t>choula</t>
-  </si>
-  <si>
-    <t>poula</t>
+    <t>lui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bahnschrift"/>
@@ -122,28 +107,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -433,19 +427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,6 +490,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
       <c r="J2">
         <v>1</v>
       </c>
@@ -506,7 +506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -514,7 +514,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -525,6 +525,15 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>2588</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
       <c r="J3">
         <v>1</v>
       </c>
@@ -532,15 +541,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -551,6 +560,15 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>722</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
       <c r="J4">
         <v>1</v>
       </c>
@@ -558,15 +576,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -577,6 +595,15 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="J5">
         <v>1</v>
       </c>
@@ -584,15 +611,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -603,6 +630,15 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6">
         <v>1</v>
       </c>
@@ -610,70 +646,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/creatXl.xlsx
+++ b/creatXl.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\API_gestion_championnat_ski\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE586946-23AB-4302-A5A1-39360B60E5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2595" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>id_participants</t>
   </si>
@@ -53,50 +48,19 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>toi</t>
-  </si>
-  <si>
-    <t>Yoann</t>
-  </si>
-  <si>
-    <t>La Descente des Alpes - M1</t>
-  </si>
-  <si>
-    <t>2021-02-27</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>moi</t>
-  </si>
-  <si>
-    <t>Cherief</t>
-  </si>
-  <si>
-    <t>Saufiane</t>
-  </si>
-  <si>
-    <t>Rameau</t>
-  </si>
-  <si>
-    <t>elle</t>
-  </si>
-  <si>
-    <t>Ligourel</t>
-  </si>
-  <si>
-    <t>lui</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bahnschrift"/>
@@ -107,37 +71,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -427,16 +382,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,183 +429,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>26</v>
-      </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>2588</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>722</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/creatXl.xlsx
+++ b/creatXl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>id_participants</t>
   </si>
@@ -48,6 +48,63 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Génique</t>
+  </si>
+  <si>
+    <t>Yoann</t>
+  </si>
+  <si>
+    <t>La Descente des Alpes - M1</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Mairot</t>
+  </si>
+  <si>
+    <t>Jean-christophe</t>
+  </si>
+  <si>
+    <t>Cherief</t>
+  </si>
+  <si>
+    <t>Saufiane</t>
+  </si>
+  <si>
+    <t>Rameau</t>
+  </si>
+  <si>
+    <t>Célia</t>
+  </si>
+  <si>
+    <t>Ligourel</t>
+  </si>
+  <si>
+    <t>Teedji</t>
+  </si>
+  <si>
+    <t>toto</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>choula</t>
+  </si>
+  <si>
+    <t>poula</t>
+  </si>
+  <si>
+    <t>mairot</t>
+  </si>
+  <si>
+    <t>tutu</t>
   </si>
 </sst>
 </file>
@@ -386,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +484,214 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/creatXl.xlsx
+++ b/creatXl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>id_participants</t>
   </si>
@@ -48,63 +48,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Génique</t>
-  </si>
-  <si>
-    <t>Yoann</t>
-  </si>
-  <si>
-    <t>La Descente des Alpes - M1</t>
-  </si>
-  <si>
-    <t>2021-02-27</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Mairot</t>
-  </si>
-  <si>
-    <t>Jean-christophe</t>
-  </si>
-  <si>
-    <t>Cherief</t>
-  </si>
-  <si>
-    <t>Saufiane</t>
-  </si>
-  <si>
-    <t>Rameau</t>
-  </si>
-  <si>
-    <t>Célia</t>
-  </si>
-  <si>
-    <t>Ligourel</t>
-  </si>
-  <si>
-    <t>Teedji</t>
-  </si>
-  <si>
-    <t>toto</t>
-  </si>
-  <si>
-    <t>tata</t>
-  </si>
-  <si>
-    <t>choula</t>
-  </si>
-  <si>
-    <t>poula</t>
-  </si>
-  <si>
-    <t>mairot</t>
-  </si>
-  <si>
-    <t>tutu</t>
   </si>
 </sst>
 </file>
@@ -443,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,214 +427,6 @@
       </c>
       <c r="K1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
